--- a/results/mmnl_summary_statistics.xlsx
+++ b/results/mmnl_summary_statistics.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>m_n</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>m_n_pair</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +537,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -562,6 +572,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -592,6 +607,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +642,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -652,6 +677,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -682,6 +712,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +747,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -742,6 +782,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +817,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -802,6 +852,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -832,6 +887,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -862,6 +922,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -892,6 +957,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -922,6 +992,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -952,6 +1027,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -982,6 +1062,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1012,6 +1097,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1042,6 +1132,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1167,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1102,6 +1202,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1132,6 +1237,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1162,6 +1272,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1192,6 +1307,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1222,6 +1342,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1252,6 +1377,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1282,6 +1412,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1312,6 +1447,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1342,6 +1482,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1372,6 +1517,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1402,6 +1552,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1432,6 +1587,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1462,6 +1622,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1492,6 +1657,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1522,6 +1692,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1552,6 +1727,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1582,6 +1762,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1612,6 +1797,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1642,6 +1832,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1672,6 +1867,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1702,6 +1902,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1732,6 +1937,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1762,6 +1972,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1792,6 +2007,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1822,6 +2042,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1852,6 +2077,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1882,6 +2112,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1912,6 +2147,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1942,6 +2182,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1972,6 +2217,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2002,6 +2252,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2032,6 +2287,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2062,6 +2322,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2092,6 +2357,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2122,6 +2392,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2152,6 +2427,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2182,6 +2462,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2212,6 +2497,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2242,6 +2532,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2272,6 +2567,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2302,6 +2602,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2332,6 +2637,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2362,6 +2672,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2392,6 +2707,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2422,6 +2742,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2452,6 +2777,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2482,6 +2812,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2512,6 +2847,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2542,6 +2882,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2572,6 +2917,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2602,6 +2952,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2632,6 +2987,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2662,6 +3022,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2692,6 +3057,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2722,6 +3092,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2752,6 +3127,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2782,6 +3162,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2812,6 +3197,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2842,6 +3232,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2872,6 +3267,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2902,6 +3302,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2932,6 +3337,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2962,6 +3372,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2992,6 +3407,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3022,6 +3442,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3052,6 +3477,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3082,6 +3512,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3112,6 +3547,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3142,6 +3582,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3172,6 +3617,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3202,6 +3652,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3232,6 +3687,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3262,6 +3722,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3292,6 +3757,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3322,6 +3792,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3352,6 +3827,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3382,6 +3862,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3412,6 +3897,11 @@
           <t>25_50</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>(25, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3442,6 +3932,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3472,6 +3967,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3502,6 +4002,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3532,6 +4037,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3562,6 +4072,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3592,6 +4107,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3622,6 +4142,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3652,6 +4177,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3682,6 +4212,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3712,6 +4247,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3742,6 +4282,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3772,6 +4317,11 @@
           <t>5_100</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>(5, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3802,6 +4352,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3832,6 +4387,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3862,6 +4422,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3892,6 +4457,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3922,6 +4492,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3952,6 +4527,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3982,6 +4562,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4012,6 +4597,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4042,6 +4632,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4072,6 +4667,11 @@
           <t>10_100</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>(10, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4102,6 +4702,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4132,6 +4737,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4162,6 +4772,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4192,6 +4807,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4222,6 +4842,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4252,6 +4877,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4282,6 +4912,11 @@
           <t>25_100</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>(25, 100)</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4312,6 +4947,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4342,6 +4982,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4372,6 +5017,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4402,6 +5052,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4432,6 +5087,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4462,6 +5122,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4492,6 +5157,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4522,6 +5192,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4552,6 +5227,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4582,6 +5262,11 @@
           <t>5_200</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>(5, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4612,6 +5297,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4642,6 +5332,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4672,6 +5367,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4702,6 +5402,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4732,6 +5437,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4762,6 +5472,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4792,6 +5507,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4822,6 +5542,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4852,6 +5577,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4882,6 +5612,11 @@
           <t>10_200</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>(10, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4912,6 +5647,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4942,6 +5682,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4972,6 +5717,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5002,6 +5752,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5032,6 +5787,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5062,6 +5822,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5092,6 +5857,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5122,6 +5892,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5152,6 +5927,11 @@
           <t>25_200</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5180,6 +5960,11 @@
       <c r="H157" t="inlineStr">
         <is>
           <t>25_200</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>(25, 200)</t>
         </is>
       </c>
     </row>
@@ -5314,7 +6099,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>6.734060316326327</v>
+        <v>6.734060316326328</v>
       </c>
       <c r="C3" t="n">
         <v>7.847941726131973</v>
@@ -5359,7 +6144,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>m_n</t>
+          <t>m_n_pair</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5406,7 +6191,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>10_100</t>
+          <t>(10, 100)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5437,14 +6222,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>10_200</t>
+          <t>(10, 200)</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>7.044965441843604</v>
+        <v>7.044965441843605</v>
       </c>
       <c r="D3" t="n">
         <v>7.268131606569785</v>
@@ -5468,7 +6253,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10_50</t>
+          <t>(10, 50)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5499,7 +6284,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>25_100</t>
+          <t>(25, 100)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5530,14 +6315,14 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25_200</t>
+          <t>(25, 200)</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.663171809323852</v>
+        <v>3.663171809323853</v>
       </c>
       <c r="D6" t="n">
         <v>3.608872795459947</v>
@@ -5561,7 +6346,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25_50</t>
+          <t>(25, 50)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5592,7 +6377,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5_100</t>
+          <t>(5, 100)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5602,7 +6387,7 @@
         <v>7.188601043835869</v>
       </c>
       <c r="D8" t="n">
-        <v>7.788808757105862</v>
+        <v>7.788808757105863</v>
       </c>
       <c r="E8" t="n">
         <v>-1.290987760738764e-07</v>
@@ -5623,7 +6408,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5_200</t>
+          <t>(5, 200)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5654,7 +6439,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5_50</t>
+          <t>(5, 50)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5858,7 +6643,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>m_n</t>
+          <t>m_n_pair</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5905,7 +6690,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>10_100</t>
+          <t>(10, 100)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5936,7 +6721,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>10_200</t>
+          <t>(10, 200)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5967,7 +6752,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10_50</t>
+          <t>(10, 50)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5977,7 +6762,7 @@
         <v>6.788687035629144</v>
       </c>
       <c r="D4" t="n">
-        <v>6.492606323080771</v>
+        <v>6.492606323080772</v>
       </c>
       <c r="E4" t="n">
         <v>3.907044187885906e-08</v>
@@ -5998,7 +6783,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>25_100</t>
+          <t>(25, 100)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6029,7 +6814,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25_200</t>
+          <t>(25, 200)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6060,7 +6845,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25_50</t>
+          <t>(25, 50)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6091,7 +6876,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5_100</t>
+          <t>(5, 100)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6122,14 +6907,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5_200</t>
+          <t>(5, 200)</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>6.632858285407795</v>
+        <v>6.632858285407794</v>
       </c>
       <c r="D9" t="n">
         <v>5.270869135954228</v>
@@ -6153,14 +6938,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5_50</t>
+          <t>(5, 50)</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>7.000961488712756</v>
+        <v>7.000961488712757</v>
       </c>
       <c r="D10" t="n">
         <v>6.701846260605739</v>
